--- a/python/result_data/ACX.MC_resultados.xlsx
+++ b/python/result_data/ACX.MC_resultados.xlsx
@@ -366,7 +366,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -403,10 +403,10 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>40605</v>
+        <v>40591</v>
       </c>
       <c r="B2" t="n">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="C2" t="n">
         <v>3</v>
@@ -415,41 +415,262 @@
         <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>1.069044967649698</v>
+        <v>1.267369693050296</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>40689</v>
+        <v>40640</v>
       </c>
       <c r="B3" t="n">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="C3" t="n">
         <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2672612419124244</v>
+        <v>1.105792680390498</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
+        <v>40660</v>
+      </c>
+      <c r="B4" t="n">
+        <v>95</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.9442156677306988</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>40665</v>
+      </c>
+      <c r="B5" t="n">
+        <v>97</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1.105792680390498</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>40687</v>
+      </c>
+      <c r="B6" t="n">
+        <v>95</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.9442156677306988</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>40695</v>
+      </c>
+      <c r="B7" t="n">
+        <v>95</v>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.9442156677306988</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>40701</v>
+      </c>
+      <c r="B8" t="n">
+        <v>93</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.7826386550709</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>40708</v>
+      </c>
+      <c r="B9" t="n">
+        <v>93</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.7826386550709</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>40785</v>
+      </c>
+      <c r="B10" t="n">
+        <v>76</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-0.5907659525373891</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>40807</v>
+      </c>
+      <c r="B11" t="n">
+        <v>72</v>
+      </c>
+      <c r="C11" t="n">
+        <v>2</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>-0.9139199778569865</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
         <v>40833</v>
       </c>
-      <c r="B4" t="n">
-        <v>72</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
+      <c r="B12" t="n">
+        <v>71</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>-0.9947084841868858</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>40855</v>
+      </c>
+      <c r="B13" t="n">
+        <v>70</v>
+      </c>
+      <c r="C13" t="n">
         <v>1</v>
       </c>
-      <c r="E4" t="n">
-        <v>-1.336306209562122</v>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" t="n">
+        <v>-1.075496990516785</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>40857</v>
+      </c>
+      <c r="B14" t="n">
+        <v>70</v>
+      </c>
+      <c r="C14" t="n">
+        <v>3</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" t="n">
+        <v>-1.075496990516785</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>40861</v>
+      </c>
+      <c r="B15" t="n">
+        <v>68</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" t="n">
+        <v>-1.237074003176584</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>40892</v>
+      </c>
+      <c r="B16" t="n">
+        <v>69</v>
+      </c>
+      <c r="C16" t="n">
+        <v>3</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" t="n">
+        <v>-1.156285496846685</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>40898</v>
+      </c>
+      <c r="B17" t="n">
+        <v>73</v>
+      </c>
+      <c r="C17" t="n">
+        <v>2</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>-0.8331314715270871</v>
       </c>
     </row>
   </sheetData>
@@ -463,7 +684,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -505,10 +726,10 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>40606</v>
+        <v>40592</v>
       </c>
       <c r="B2" t="n">
-        <v>9.026603</v>
+        <v>8.623977</v>
       </c>
       <c r="C2" t="n">
         <v>4</v>
@@ -525,42 +746,302 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>40690</v>
+        <v>40641</v>
       </c>
       <c r="B3" t="n">
-        <v>8.639881000000001</v>
+        <v>9.012686</v>
       </c>
       <c r="C3" t="n">
         <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.04284247351966175</v>
+        <v>0.04507305620133262</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>0.795350836349726</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
+        <v>40661</v>
+      </c>
+      <c r="B4" t="n">
+        <v>8.813203</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-0.02213357926815607</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>-0.0848735887702521</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>40666</v>
+      </c>
+      <c r="B5" t="n">
+        <v>8.937472</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.01410032198282507</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.3896921245063566</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>40688</v>
+      </c>
+      <c r="B6" t="n">
+        <v>8.594098000000001</v>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-0.03841958889493569</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>-0.2981760902433196</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>40696</v>
+      </c>
+      <c r="B7" t="n">
+        <v>8.541777</v>
+      </c>
+      <c r="C7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-0.006088015286770165</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.1252797276779919</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>40702</v>
+      </c>
+      <c r="B8" t="n">
+        <v>8.083949</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-0.0535986832716423</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-0.4969810077673381</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>40709</v>
+      </c>
+      <c r="B9" t="n">
+        <v>7.917168</v>
+      </c>
+      <c r="C9" t="n">
+        <v>2</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-0.02063112966200065</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-0.06519557882954774</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>40786</v>
+      </c>
+      <c r="B10" t="n">
+        <v>6.681334</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-0.1560954624178748</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-1.839410484713868</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>40808</v>
+      </c>
+      <c r="B11" t="n">
+        <v>5.416547</v>
+      </c>
+      <c r="C11" t="n">
+        <v>3</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-0.1893015676210769</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-2.274320291740762</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
         <v>40834</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B12" t="n">
         <v>6.202158</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C12" t="n">
         <v>1</v>
       </c>
-      <c r="D4" t="n">
-        <v>-0.2821477518035261</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>-1</v>
+      <c r="D12" t="n">
+        <v>0.1450390811710855</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" t="n">
+        <v>2.104634305844016</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>40856</v>
+      </c>
+      <c r="B13" t="n">
+        <v>6.314672</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.01814110507987698</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.4426154103365453</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>40858</v>
+      </c>
+      <c r="B14" t="n">
+        <v>6.376885</v>
+      </c>
+      <c r="C14" t="n">
+        <v>4</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.009852134837723847</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.334052408852142</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>40862</v>
+      </c>
+      <c r="B15" t="n">
+        <v>6.208115</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" t="n">
+        <v>-0.02646589988685688</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>-0.1416152244642843</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>40893</v>
+      </c>
+      <c r="B16" t="n">
+        <v>6.291506</v>
+      </c>
+      <c r="C16" t="n">
+        <v>4</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.01343257977663104</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.3809465148582984</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>40899</v>
+      </c>
+      <c r="B17" t="n">
+        <v>6.494694</v>
+      </c>
+      <c r="C17" t="n">
+        <v>3</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.03229560617124094</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.6280009381042952</v>
       </c>
     </row>
   </sheetData>
@@ -608,7 +1089,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -621,10 +1102,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -688,9 +1169,11 @@
           <t>fisher exact test</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr"/>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>0.2124999999999998</v>
       </c>
     </row>
     <row r="11">
@@ -720,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D12" t="n">
+        <v>13</v>
+      </c>
+      <c r="E12" t="n">
         <v>3</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -762,7 +1245,7 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>0.5416666666666666</v>
       </c>
     </row>
     <row r="16">
@@ -778,7 +1261,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="17">
@@ -794,7 +1277,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0.5</v>
+        <v>0.4431818181818182</v>
       </c>
     </row>
     <row r="19">
@@ -809,7 +1292,7 @@
         <v>0</v>
       </c>
       <c r="B20" t="n">
-        <v>0.5345224838248487</v>
+        <v>0.004684053119997598</v>
       </c>
     </row>
     <row r="22">
@@ -835,10 +1318,10 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>-0.1624951126615939</v>
+        <v>-0.01565333607257315</v>
       </c>
       <c r="D23" t="n">
-        <v>0.1196526391419322</v>
+        <v>0.07635170480565584</v>
       </c>
     </row>
     <row r="24">
@@ -851,10 +1334,10 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>77</v>
+        <v>83.3125</v>
       </c>
       <c r="D24" t="n">
-        <v>3.741657386773941</v>
+        <v>12.37799837413142</v>
       </c>
     </row>
   </sheetData>
@@ -1173,7 +1656,7 @@
         <v>40579</v>
       </c>
       <c r="B37" t="n">
-        <v>98</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1269,7 +1752,7 @@
         <v>40591</v>
       </c>
       <c r="B49" t="n">
-        <v>0</v>
+        <v>99</v>
       </c>
     </row>
     <row r="50">
@@ -1381,7 +1864,7 @@
         <v>40605</v>
       </c>
       <c r="B63" t="n">
-        <v>81</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -1397,7 +1880,7 @@
         <v>40607</v>
       </c>
       <c r="B65" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -1661,7 +2144,7 @@
         <v>40640</v>
       </c>
       <c r="B98" t="n">
-        <v>0</v>
+        <v>97</v>
       </c>
     </row>
     <row r="99">
@@ -1821,7 +2304,7 @@
         <v>40660</v>
       </c>
       <c r="B118" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
     </row>
     <row r="119">
@@ -1861,7 +2344,7 @@
         <v>40665</v>
       </c>
       <c r="B123" t="n">
-        <v>0</v>
+        <v>97</v>
       </c>
     </row>
     <row r="124">
@@ -2037,7 +2520,7 @@
         <v>40687</v>
       </c>
       <c r="B145" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
     </row>
     <row r="146">
@@ -2053,7 +2536,7 @@
         <v>40689</v>
       </c>
       <c r="B147" t="n">
-        <v>78</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148">
@@ -2061,7 +2544,7 @@
         <v>40690</v>
       </c>
       <c r="B148" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="149">
@@ -2101,7 +2584,7 @@
         <v>40695</v>
       </c>
       <c r="B153" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
     </row>
     <row r="154">
@@ -2149,7 +2632,7 @@
         <v>40701</v>
       </c>
       <c r="B159" t="n">
-        <v>0</v>
+        <v>93</v>
       </c>
     </row>
     <row r="160">
@@ -2205,7 +2688,7 @@
         <v>40708</v>
       </c>
       <c r="B166" t="n">
-        <v>0</v>
+        <v>93</v>
       </c>
     </row>
     <row r="167">
@@ -2821,7 +3304,7 @@
         <v>40785</v>
       </c>
       <c r="B243" t="n">
-        <v>0</v>
+        <v>76</v>
       </c>
     </row>
     <row r="244">
@@ -2845,7 +3328,7 @@
         <v>40788</v>
       </c>
       <c r="B246" t="n">
-        <v>0</v>
+        <v>79</v>
       </c>
     </row>
     <row r="247">
@@ -2997,7 +3480,7 @@
         <v>40807</v>
       </c>
       <c r="B265" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
     </row>
     <row r="266">
@@ -3205,7 +3688,7 @@
         <v>40833</v>
       </c>
       <c r="B291" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="292">
@@ -3381,7 +3864,7 @@
         <v>40855</v>
       </c>
       <c r="B313" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="314">
@@ -3397,7 +3880,7 @@
         <v>40857</v>
       </c>
       <c r="B315" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="316">
@@ -3429,7 +3912,7 @@
         <v>40861</v>
       </c>
       <c r="B319" t="n">
-        <v>0</v>
+        <v>68</v>
       </c>
     </row>
     <row r="320">
@@ -3677,7 +4160,7 @@
         <v>40892</v>
       </c>
       <c r="B350" t="n">
-        <v>0</v>
+        <v>69</v>
       </c>
     </row>
     <row r="351">
@@ -3725,7 +4208,7 @@
         <v>40898</v>
       </c>
       <c r="B356" t="n">
-        <v>0</v>
+        <v>73</v>
       </c>
     </row>
     <row r="357">
